--- a/medicine/Médecine vétérinaire/Hormisdas_Pilon/Hormisdas_Pilon.xlsx
+++ b/medicine/Médecine vétérinaire/Hormisdas_Pilon/Hormisdas_Pilon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hormisdas Pilon (1857-1937) est un homme politique et un vétérinaire canadien.
 Natif de Vaudreuil, dans un foyer agricole, il fit ses études au collège Bourget et à l'école de médecine Victoria, où il s'initia à la médecine générale avant de s'orienter vers la médecine vétérinaire. Il exerça son métier et devint le directeur de l'Ordre des médecins vétérinaires jusqu'en 1928.
-Il avait en même temps exercé l'agriculture et était devenu le maire de Saint-Michel-de-Vaudreuil de 1900 à 1911 et de 1918 à 1923. Dans une élection partielle de 1901, il fut élu député libéral. Il est réélu à plusieurs reprises dans la circonscription de Vaudreuil, en 1904, 1908, 1912, 1912, 1916, 1919, 1923 et 1927. À l'Assemblée législative, il exerça la fonction de whip. Après sa retraite de la vie politique, Elzéar Sabourin, également libéral, devient député de la circonscription de Vaudreuil[1]. Il est décédé à Vaudreuil le 19 juillet 1937.
+Il avait en même temps exercé l'agriculture et était devenu le maire de Saint-Michel-de-Vaudreuil de 1900 à 1911 et de 1918 à 1923. Dans une élection partielle de 1901, il fut élu député libéral. Il est réélu à plusieurs reprises dans la circonscription de Vaudreuil, en 1904, 1908, 1912, 1912, 1916, 1919, 1923 et 1927. À l'Assemblée législative, il exerça la fonction de whip. Après sa retraite de la vie politique, Elzéar Sabourin, également libéral, devient député de la circonscription de Vaudreuil. Il est décédé à Vaudreuil le 19 juillet 1937.
 </t>
         </is>
       </c>
